--- a/challanges.xlsx
+++ b/challanges.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\twine-ctf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43335103-9332-4A91-83DA-26B014DEED6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>ChallengeName</t>
   </si>
@@ -147,13 +148,64 @@
   </si>
   <si>
     <t>Idee:</t>
+  </si>
+  <si>
+    <t>https://xss-game.appspot.com/</t>
+  </si>
+  <si>
+    <t>ctf4</t>
+  </si>
+  <si>
+    <t>XSS</t>
+  </si>
+  <si>
+    <t>cft5</t>
+  </si>
+  <si>
+    <t>cft6</t>
+  </si>
+  <si>
+    <t>cft7</t>
+  </si>
+  <si>
+    <t>cft8</t>
+  </si>
+  <si>
+    <t>simuliert</t>
+  </si>
+  <si>
+    <t>NEIN</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>Search in Web 1</t>
+  </si>
+  <si>
+    <t>Search in Web 2</t>
+  </si>
+  <si>
+    <t>Search in Web 3</t>
+  </si>
+  <si>
+    <t>www-admin, keyMemory(superSecretpassw0rd123)</t>
+  </si>
+  <si>
+    <t>look at js, base64 codiert user and pw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same javascript funktion is executed </t>
+  </si>
+  <si>
+    <t>3*8-bit bytes is represented by four 6-bit digits with a particular set of 64 characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +226,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,13 +284,31 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -264,30 +340,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:G19" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G19"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="ChallengeName"/>
-    <tableColumn id="2" name="Nr. im Game"/>
-    <tableColumn id="7" name="Stufe"/>
-    <tableColumn id="3" name="Wer?"/>
-    <tableColumn id="4" name="Dateipath"/>
-    <tableColumn id="5" name="Typ"/>
-    <tableColumn id="6" name="Quelle"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:H19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ChallengeName"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nr. im Game"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Stufe" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Wer?"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dateipath"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Typ"/>
+    <tableColumn id="8" xr3:uid="{BE2C3356-256D-405E-BE1B-E0445F42102A}" name="simuliert"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quelle"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Challenges"/>
-    <tableColumn id="2" name="Lösung (flag)"/>
-    <tableColumn id="3" name="Lösungsweg"/>
-    <tableColumn id="4" name="Hints1"/>
-    <tableColumn id="5" name="Hints2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Challenges"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Lösung (flag)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Lösungsweg"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Hints1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Hints2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -555,27 +632,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -588,13 +667,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -605,13 +690,19 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -622,13 +713,19 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
@@ -639,10 +736,99 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -652,21 +838,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="44.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -683,19 +871,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -707,20 +922,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" customWidth="1"/>
-    <col min="2" max="2" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -728,7 +943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -736,7 +951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -751,20 +966,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -775,7 +990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -786,7 +1001,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -797,7 +1012,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -805,7 +1020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -813,12 +1028,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>

--- a/challanges.xlsx
+++ b/challanges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43335103-9332-4A91-83DA-26B014DEED6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F5DB62-1691-4C9E-AA6B-6DFD4E9A9FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -291,7 +291,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -636,7 +635,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +774,7 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
       <c r="F6" t="s">
@@ -798,7 +797,7 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
       <c r="F7" t="s">
@@ -872,19 +871,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>56</v>
       </c>
     </row>

--- a/challanges.xlsx
+++ b/challanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F5DB62-1691-4C9E-AA6B-6DFD4E9A9FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697615BD-03EF-48D3-B162-910FC12A3D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>ChallengeName</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>3*8-bit bytes is represented by four 6-bit digits with a particular set of 64 characters</t>
+  </si>
+  <si>
+    <t>cft9</t>
   </si>
 </sst>
 </file>
@@ -632,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,6 +827,11 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
